--- a/ASSREG-Faturacao/copia.xlsx
+++ b/ASSREG-Faturacao/copia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1995EEDE-7784-4B5B-BDFF-FCC333FD54A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF59C10-E28F-432A-8FC8-088DF26AD099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2724" yWindow="2700" windowWidth="13704" windowHeight="5928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ASSREG-Faturacao/copia.xlsx
+++ b/ASSREG-Faturacao/copia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CF0F66-7AF2-4819-98AF-A2E320221C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD6CC52-42D4-4ADE-AC1F-1E256CEAF07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15060" yWindow="0" windowWidth="3468" windowHeight="5916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ASSREG-Faturacao/copia.xlsx
+++ b/ASSREG-Faturacao/copia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD6CC52-42D4-4ADE-AC1F-1E256CEAF07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D035BB-EEFC-455E-A7D6-26060F3F044F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="0" windowWidth="3468" windowHeight="5916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4848" yWindow="804" windowWidth="23556" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CANTAO 1" sheetId="3" r:id="rId1"/>
@@ -418,44 +418,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,7 +809,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T11" sqref="T11"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,58 +830,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="36" t="s">
         <v>37</v>
       </c>
     </row>
@@ -908,58 +908,58 @@
       <c r="R2" s="26"/>
     </row>
     <row r="3" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="P3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="Q3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="37" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1070,22 +1070,22 @@
       <c r="L6" s="18">
         <v>1143</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6" s="40">
         <v>1042</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="38">
         <v>44617</v>
       </c>
-      <c r="P6" s="38">
+      <c r="P6" s="40">
         <v>1046</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="38">
         <v>44890</v>
       </c>
-      <c r="R6" s="38">
+      <c r="R6" s="40">
         <v>1459</v>
       </c>
     </row>
@@ -1120,28 +1120,28 @@
       <c r="J7" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="46">
         <v>13139080205</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="46">
         <v>1143</v>
       </c>
-      <c r="M7" s="46" t="s">
+      <c r="M7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="40">
+      <c r="N7" s="41">
         <v>1042</v>
       </c>
-      <c r="O7" s="45">
+      <c r="O7" s="39">
         <v>44617</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="41">
         <v>1046</v>
       </c>
-      <c r="Q7" s="45">
+      <c r="Q7" s="39">
         <v>44890</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="41">
         <v>1459</v>
       </c>
     </row>
@@ -1176,28 +1176,28 @@
       <c r="J8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="47">
         <v>13139080205</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="47">
         <v>1143</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="39">
+      <c r="N8" s="43">
         <v>1042</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="42">
         <v>44617</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="43">
         <v>1046</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="42">
         <v>44890</v>
       </c>
-      <c r="R8" s="39">
+      <c r="R8" s="43">
         <v>1459</v>
       </c>
     </row>
@@ -1294,22 +1294,22 @@
       <c r="L10" s="18">
         <v>1037</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="M10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="40">
         <v>1529</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="38">
         <v>44617</v>
       </c>
-      <c r="P10" s="38">
+      <c r="P10" s="40">
         <v>1529</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="38">
         <v>44890</v>
       </c>
-      <c r="R10" s="38">
+      <c r="R10" s="40">
         <v>1826</v>
       </c>
     </row>
@@ -1344,28 +1344,28 @@
       <c r="J11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="46">
         <v>13139080143</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="46">
         <v>1037</v>
       </c>
-      <c r="M11" s="46" t="s">
+      <c r="M11" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="40">
+      <c r="N11" s="41">
         <v>1529</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="39">
         <v>44617</v>
       </c>
-      <c r="P11" s="40">
+      <c r="P11" s="41">
         <v>1529</v>
       </c>
-      <c r="Q11" s="45">
+      <c r="Q11" s="39">
         <v>44890</v>
       </c>
-      <c r="R11" s="40">
+      <c r="R11" s="41">
         <v>1826</v>
       </c>
     </row>
@@ -1400,28 +1400,28 @@
       <c r="J12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="46">
         <v>13139080143</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="46">
         <v>1037</v>
       </c>
-      <c r="M12" s="46" t="s">
+      <c r="M12" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="40">
+      <c r="N12" s="41">
         <v>1529</v>
       </c>
-      <c r="O12" s="45">
+      <c r="O12" s="39">
         <v>44617</v>
       </c>
-      <c r="P12" s="40">
+      <c r="P12" s="41">
         <v>1529</v>
       </c>
-      <c r="Q12" s="45">
+      <c r="Q12" s="39">
         <v>44890</v>
       </c>
-      <c r="R12" s="40">
+      <c r="R12" s="41">
         <v>1826</v>
       </c>
     </row>
@@ -2055,19 +2055,19 @@
         <v>36</v>
       </c>
       <c r="N22" s="29">
-        <v>2411</v>
+        <v>2500</v>
       </c>
       <c r="O22" s="2">
         <v>44613</v>
       </c>
       <c r="P22" s="31">
-        <v>2488</v>
+        <v>7800</v>
       </c>
       <c r="Q22" s="2">
         <v>44888</v>
       </c>
       <c r="R22" s="31">
-        <v>3409</v>
+        <v>12000</v>
       </c>
       <c r="S22"/>
       <c r="T22"/>

--- a/ASSREG-Faturacao/copia.xlsx
+++ b/ASSREG-Faturacao/copia.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A9CEAF-915D-437E-8E5F-EAB4CB5E5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFB2A4C-8742-4790-88EF-61BD027E1062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4848" yWindow="804" windowWidth="23556" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5352" yWindow="1248" windowWidth="23556" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CANTAO 1" sheetId="3" r:id="rId1"/>
@@ -284,14 +284,14 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,7 +644,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,7 +654,7 @@
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="34" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="32" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="18" customWidth="1"/>
     <col min="13" max="13" width="46.5546875" customWidth="1"/>
     <col min="14" max="14" width="10.44140625" style="23" bestFit="1" customWidth="1"/>
@@ -665,58 +665,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="31" t="s">
+      <c r="A1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -733,7 +733,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="33"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="17"/>
       <c r="M2" s="3"/>
       <c r="N2" s="22"/>
@@ -743,58 +743,58 @@
       <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="32" t="s">
+      <c r="A3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="34" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
         <v>44888</v>
       </c>
       <c r="R8" s="27">
-        <v>2200</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
